--- a/AAII_Financials/Yearly/ACN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACN_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/ACN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43708</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43343</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42978</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42613</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42247</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41882</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41517</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41152</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40786</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>44327000</v>
+      </c>
+      <c r="E8" s="3">
         <v>43215000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40992500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>36176800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34797700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32914400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31874700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>30394300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29778000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27352900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>30350900</v>
+      </c>
+      <c r="E9" s="3">
         <v>29900300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>57659700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>50840300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24520200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>23105200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22190200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21010100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20790300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18966200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13976200</v>
+      </c>
+      <c r="E10" s="3">
         <v>13314700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-16667200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-14663500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10277400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9809200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9684500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9384200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8987700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8386700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,42 +908,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>510000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-848800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>64400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-18000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-272000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -958,9 +980,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37813400</v>
+      </c>
+      <c r="E17" s="3">
         <v>36909900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35093800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31495500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29138400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28478600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27574200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26055600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25906400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23882500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6513600</v>
+      </c>
+      <c r="E18" s="3">
         <v>6305100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5898800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4681400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5659300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4435900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4300500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4338700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3871500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3470500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>293800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-30300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-71100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-49800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-39400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>47700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>56600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8580500</v>
+      </c>
+      <c r="E21" s="3">
         <v>7167500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6754400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5433400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6348900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5071000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4936100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4946400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4512800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4040300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E22" s="3">
         <v>23000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6774300</v>
+      </c>
+      <c r="E23" s="3">
         <v>6251800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5808100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4616000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5603600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4410500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4297700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4339300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3904200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3512000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1589000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1405600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1415800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>981100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1254000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1136700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1121700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>784800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1079200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>958800</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5185300</v>
+      </c>
+      <c r="E26" s="3">
         <v>4846200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4392200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3634900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4349600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3273800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3176000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3554500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2824900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2553200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5107800</v>
+      </c>
+      <c r="E27" s="3">
         <v>4779100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4237600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3445100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4111900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3053600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2941500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3281900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2553500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2277700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,20 +1405,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-177700</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1378,12 +1438,15 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-293800</v>
+      </c>
+      <c r="E32" s="3">
         <v>30300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>71100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>49800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>39400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-47700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-56600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5107800</v>
+      </c>
+      <c r="E33" s="3">
         <v>4779100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4059900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3445100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4111900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3053600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2941500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3281900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2553500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2277700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5107800</v>
+      </c>
+      <c r="E35" s="3">
         <v>4779100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4059900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3445100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4111900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3053600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2941500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3281900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2553500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2277700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43708</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43343</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42978</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42613</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42247</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41882</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41517</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41152</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40786</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,107 +1733,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8415300</v>
+      </c>
+      <c r="E41" s="3">
         <v>6126700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5015700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4081300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4860100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8675600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4921300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5631900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6640500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5701100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E42" s="3">
         <v>3300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4900</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7846900</v>
+      </c>
+      <c r="E43" s="3">
         <v>8095100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7496400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6885300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6222400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5725400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5663300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4846600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4480700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4621800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1779,174 +1874,192 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1393200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1225500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1070300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1127700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>890800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1536700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1317200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1931500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1464400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1143400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17749800</v>
+      </c>
+      <c r="E46" s="3">
         <v>15450600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13585600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12097300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11976200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10700100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11904400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11844200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12587900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11471200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>367800</v>
+      </c>
+      <c r="E47" s="3">
         <v>311300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>238600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>252500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>266800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>60500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>94800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>62100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>89600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4728900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1391200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1264000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1140600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>956500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>801900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>793400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>779700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>779500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>785200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8739000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7046300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6070100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5712700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4119600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3394700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2793800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2144500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1215400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1132000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5493100</v>
+      </c>
+      <c r="E52" s="3">
         <v>5590500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3290800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3486700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3289900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3745400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2344000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2825800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2042300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2253500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37078600</v>
+      </c>
+      <c r="E54" s="3">
         <v>29789900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24449100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22689900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20609000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18202600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17930500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16867000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16665400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15731500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1349900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1646600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1348800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1525100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1280800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1151500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1064200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>961900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>903800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>949300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E58" s="3">
         <v>6400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>4400</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11304900</v>
+      </c>
+      <c r="E59" s="3">
         <v>9408800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8797600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8296300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7595300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7378900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7093500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8108000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7205300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6952900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12662600</v>
+      </c>
+      <c r="E60" s="3">
         <v>11061900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10151800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9824300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8878900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8491000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8158100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8161000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8109200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7906600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E61" s="3">
         <v>16200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>26400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6862800</v>
+      </c>
+      <c r="E62" s="3">
         <v>3884000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3553100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3133200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3516200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3038500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3460600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3716000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3931800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3474000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20078100</v>
+      </c>
+      <c r="E66" s="3">
         <v>15380900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14084300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13740400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13053700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12068900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12198400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11906900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12519600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11852600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12375500</v>
+      </c>
+      <c r="E72" s="3">
         <v>10421500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7952400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7081900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7880000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13470000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11758100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10069800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7904200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6281500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17000500</v>
+      </c>
+      <c r="E76" s="3">
         <v>14409000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10364800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8949500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7555300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6133700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5732000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4960200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4145800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3879000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43708</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43343</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42978</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42613</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42247</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41882</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41517</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41152</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40786</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5107800</v>
+      </c>
+      <c r="E81" s="3">
         <v>4779100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4059900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3445100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4111900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3053600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2941500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3281900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2553500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2277700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1773100</v>
+      </c>
+      <c r="E83" s="3">
         <v>892800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>926800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>801800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>729100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>645900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>620700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>593000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>593500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>513300</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8215200</v>
+      </c>
+      <c r="E89" s="3">
         <v>6627000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6026700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4973000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4667400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4092100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3486100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3303100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4256900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3441700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-599100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-599000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-619200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-515900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-496600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-395000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-321900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-369600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-372000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-403700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1894500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1755600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1249600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2233900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-610400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1170400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1056400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1156200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-535400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-703400</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2035200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1861700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1671100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1498700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1372200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1276800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1254900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1121700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-950900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-643600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4049100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3767200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3709000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3560200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3489200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3202300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3165400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3065600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2558900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2121500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-38700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-133600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>42300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-23000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-280000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>25200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-89900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-223200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>245900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2288500</v>
+      </c>
+      <c r="E102" s="3">
         <v>1065500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>934500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-778700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>544800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-560500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-710600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1008600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>939400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>862800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ACN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43343</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42978</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42613</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42247</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41882</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41517</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41152</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40786</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>50533400</v>
+      </c>
+      <c r="E8" s="3">
         <v>44327000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43215000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40992500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>36176800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34797700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32914400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31874700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30394300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29778000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27352900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>34169300</v>
+      </c>
+      <c r="E9" s="3">
         <v>30350900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>29900300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>57659700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>50840300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24520200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>23105200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22190200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21010100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20790300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18966200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>16364100</v>
+      </c>
+      <c r="E10" s="3">
         <v>13976200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13314700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-16667200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-14663500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10277400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9809200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9684500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9384200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8987700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8386700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,45 +927,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>510000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-848800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>64400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-18000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-272000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -983,9 +1005,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42911900</v>
+      </c>
+      <c r="E17" s="3">
         <v>37813400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36909900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35093800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31495500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29138400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28478600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27574200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26055600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25906400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23882500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7621500</v>
+      </c>
+      <c r="E18" s="3">
         <v>6513600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6305100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5898800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4681400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5659300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4435900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4300500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4338700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3871500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3470500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>199100</v>
+      </c>
+      <c r="E20" s="3">
         <v>293800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-30300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-71100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-49800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-39400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>47700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>56600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9711900</v>
+      </c>
+      <c r="E21" s="3">
         <v>8580500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7167500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6754400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5433400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6348900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5071000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4936100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4946400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4512800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4040300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E22" s="3">
         <v>33100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7761100</v>
+      </c>
+      <c r="E23" s="3">
         <v>6774300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6251800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5808100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4616000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5603600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4410500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4297700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4339300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3904200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3512000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1770600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1589000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1405600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1415800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>981100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1254000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1136700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1121700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>784800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1079200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>958800</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5990500</v>
+      </c>
+      <c r="E26" s="3">
         <v>5185300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4846200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4392200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3634900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4349600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3273800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3176000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3554500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2824900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2553200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5906800</v>
+      </c>
+      <c r="E27" s="3">
         <v>5107800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4779100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4237600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3445100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4111900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3053600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2941500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3281900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2553500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2277700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1420,11 +1480,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-177700</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1441,12 +1501,15 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-199100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-293800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>30300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>71100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>49800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>39400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-47700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-56600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5906800</v>
+      </c>
+      <c r="E33" s="3">
         <v>5107800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4779100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4059900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3445100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4111900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3053600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2941500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3281900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2553500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2277700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5906800</v>
+      </c>
+      <c r="E35" s="3">
         <v>5107800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4779100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4059900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3445100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4111900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3053600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2941500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3281900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2553500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2277700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43343</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42978</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42613</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42247</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41882</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41517</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41152</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40786</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,116 +1819,126 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8168200</v>
+      </c>
+      <c r="E41" s="3">
         <v>8415300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6126700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5015700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4081300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4860100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8675600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4921300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5631900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6640500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5701100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E42" s="3">
         <v>94300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4900</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9728200</v>
+      </c>
+      <c r="E43" s="3">
         <v>7846900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8095100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7496400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6885300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6222400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5725400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5663300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4846600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4480700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4621800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1877,189 +1972,207 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1765800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1393200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1225500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1070300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1127700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>890800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1536700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1317200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1931500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1464400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1143400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19666500</v>
+      </c>
+      <c r="E46" s="3">
         <v>17749800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15450600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13585600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12097300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11976200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10700100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11904400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11844200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12587900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11471200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>367900</v>
+      </c>
+      <c r="E47" s="3">
         <v>367800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>311300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>238600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>252500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>266800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>60500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>94800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>62100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>89600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4821600</v>
+      </c>
+      <c r="E48" s="3">
         <v>4728900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1391200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1264000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1140600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>956500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>801900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>793400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>779700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>779500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>785200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12836800</v>
+      </c>
+      <c r="E49" s="3">
         <v>8739000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7046300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6070100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5712700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4119600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3394700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2793800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2144500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1215400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1132000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5483000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5493100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5590500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3290800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3486700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3289900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3745400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2344000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2825800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2042300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2253500</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43175800</v>
+      </c>
+      <c r="E54" s="3">
         <v>37078600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29789900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24449100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22689900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20609000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18202600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17930500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16867000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16665400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15731500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2274100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1349900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1646600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1348800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1525100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1280800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1151500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1064200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>961900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>903800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>949300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E58" s="3">
         <v>7800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>4400</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13422700</v>
+      </c>
+      <c r="E59" s="3">
         <v>11304900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9408800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8797600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8296300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7595300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7378900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7093500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8108000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7205300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6952900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15708900</v>
+      </c>
+      <c r="E60" s="3">
         <v>12662600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11061900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10151800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9824300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8878900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8491000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8158100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8161000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8109200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7906600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E61" s="3">
         <v>54100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7316400</v>
+      </c>
+      <c r="E62" s="3">
         <v>6862800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3884000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3553100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3133200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3516200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3038500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3460600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3716000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3931800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3474000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23646400</v>
+      </c>
+      <c r="E66" s="3">
         <v>20078100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15380900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14084300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13740400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13053700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12068900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12198400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11906900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12519600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11852600</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13988700</v>
+      </c>
+      <c r="E72" s="3">
         <v>12375500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10421500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7952400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7081900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7880000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13470000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11758100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10069800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7904200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6281500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19529500</v>
+      </c>
+      <c r="E76" s="3">
         <v>17000500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14409000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10364800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8949500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7555300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6133700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5732000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4960200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4145800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3879000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43343</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42978</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42613</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42247</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41882</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41517</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41152</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40786</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5906800</v>
+      </c>
+      <c r="E81" s="3">
         <v>5107800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4779100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4059900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3445100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4111900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3053600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2941500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3281900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2553500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2277700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1891200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1773100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>892800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>926800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>801800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>729100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>645900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>620700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>593000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>593500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>513300</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8975100</v>
+      </c>
+      <c r="E89" s="3">
         <v>8215200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6627000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6026700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4973000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4667400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4092100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3486100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3303100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4256900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3441700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-580100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-599100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-599000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-619200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-515900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-496600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-395000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-321900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-369600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-372000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-403700</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4309800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1894500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1755600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1249600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2233900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-610400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1170400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1056400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1156200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-535400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-703400</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2233600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2035200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1861700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1671100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1498700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1372200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1276800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1254900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1121700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-950900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-643600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4926300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4049100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3767200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3709000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3560200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3489200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3202300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3165400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3065600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2558900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2121500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E101" s="3">
         <v>16900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-38700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-133600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>42300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-23000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-280000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>25200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-89900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-223200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>245900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-247200</v>
+      </c>
+      <c r="E102" s="3">
         <v>2288500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1065500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>934500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-778700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>544800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-560500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-710600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1008600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>939400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>862800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ACN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43343</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42978</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42613</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42247</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41882</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41517</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41152</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40786</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>61594300</v>
+      </c>
+      <c r="E8" s="3">
         <v>50533400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>44327000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43215000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40992500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>36176800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34797700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32914400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31874700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30394300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29778000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27352900</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41892800</v>
+      </c>
+      <c r="E9" s="3">
         <v>34169300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30350900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>29900300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>57659700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>50840300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24520200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23105200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22190200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21010100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20790300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18966200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19701500</v>
+      </c>
+      <c r="E10" s="3">
         <v>16364100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13976200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13314700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-16667200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-14663500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10277400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9809200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9684500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9384200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8987700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8386700</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,48 +946,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>96300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>510000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-848800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>64400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-18000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-272000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,9 +1030,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52323400</v>
+      </c>
+      <c r="E17" s="3">
         <v>42911900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37813400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36909900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35093800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31495500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29138400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28478600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27574200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26055600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25906400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23882500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9270900</v>
+      </c>
+      <c r="E18" s="3">
         <v>7621500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6513600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6305100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5898800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4681400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5659300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4435900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4300500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4338700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3871500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3470500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E20" s="3">
         <v>199100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>293800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-30300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-71100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-49800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-39400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>47700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>56600</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11331700</v>
+      </c>
+      <c r="E21" s="3">
         <v>9711900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8580500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7167500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6754400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5433400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6348900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5071000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4936100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4946400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4512800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4040300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E22" s="3">
         <v>59500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9196200</v>
+      </c>
+      <c r="E23" s="3">
         <v>7761100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6774300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6251800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5808100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4616000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5603600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4410500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4297700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4339300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3904200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3512000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2207200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1770600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1589000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1405600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1415800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>981100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1254000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1136700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1121700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>784800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1079200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>958800</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6989000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5990500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5185300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4846200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4392200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3634900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4349600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3273800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3176000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3554500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2824900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2553200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6877200</v>
+      </c>
+      <c r="E27" s="3">
         <v>5906800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5107800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4779100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4237600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3445100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4111900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3053600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2941500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3281900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2553500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2277700</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1483,11 +1543,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-177700</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1504,12 +1564,15 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-199100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-293800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>30300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>71100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>49800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>39400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-47700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-56600</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6877200</v>
+      </c>
+      <c r="E33" s="3">
         <v>5906800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5107800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4779100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4059900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3445100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4111900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3053600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2941500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3281900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2553500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2277700</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6877200</v>
+      </c>
+      <c r="E35" s="3">
         <v>5906800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5107800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4779100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4059900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3445100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4111900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3053600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2941500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3281900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2553500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2277700</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43343</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42978</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42613</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42247</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41882</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41517</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41152</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40786</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,125 +1905,135 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7889800</v>
+      </c>
+      <c r="E41" s="3">
         <v>8168200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8415300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6126700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5015700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4081300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4860100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8675600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4921300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5631900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6640500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5701100</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>94300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4900</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11776800</v>
+      </c>
+      <c r="E43" s="3">
         <v>9728200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7846900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8095100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7496400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6885300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6222400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5725400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5663300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4846600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4480700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4621800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1975,204 +2070,222 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1940300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1765800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1393200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1225500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1070300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1127700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>890800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1536700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1317200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1931500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1464400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1143400</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21610900</v>
+      </c>
+      <c r="E46" s="3">
         <v>19666500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17749800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15450600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13585600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12097300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11976200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10700100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11904400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11844200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12587900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11471200</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>364800</v>
+      </c>
+      <c r="E47" s="3">
         <v>367900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>367800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>311300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>238600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>252500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>266800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>60500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>94800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>62100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>89600</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4677700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4821600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4728900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1391200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1264000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1140600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>956500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>801900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>793400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>779700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>779500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>785200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15064100</v>
+      </c>
+      <c r="E49" s="3">
         <v>12836800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8739000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7046300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6070100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5712700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4119600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3394700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2793800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2144500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1215400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1132000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5545900</v>
+      </c>
+      <c r="E52" s="3">
         <v>5483000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5493100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5590500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3290800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3486700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3289900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3745400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2344000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2825800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2042300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2253500</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47263400</v>
+      </c>
+      <c r="E54" s="3">
         <v>43175800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>37078600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29789900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24449100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22689900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20609000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18202600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17930500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16867000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16665400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15731500</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2559500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2274100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1349900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1646600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1348800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1525100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1280800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1151500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1064200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>961900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>903800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>949300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E58" s="3">
         <v>12100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>4400</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14954800</v>
+      </c>
+      <c r="E59" s="3">
         <v>13422700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11304900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9408800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8797600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8296300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7595300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7378900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7093500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8108000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7205300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6952900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17523500</v>
+      </c>
+      <c r="E60" s="3">
         <v>15708900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12662600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11061900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10151800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9824300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8878900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8491000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8158100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8161000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8109200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7906600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E61" s="3">
         <v>53500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>54100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6946900</v>
+      </c>
+      <c r="E62" s="3">
         <v>7316400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6862800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3884000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3553100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3133200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3516200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3038500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3460600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3716000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3931800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3474000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25157300</v>
+      </c>
+      <c r="E66" s="3">
         <v>23646400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20078100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15380900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14084300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13740400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13053700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12068900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12198400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11906900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12519600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11852600</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18203800</v>
+      </c>
+      <c r="E72" s="3">
         <v>13988700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12375500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10421500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7952400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7081900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7880000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13470000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11758100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10069800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7904200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6281500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22106100</v>
+      </c>
+      <c r="E76" s="3">
         <v>19529500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17000500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14409000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10364800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8949500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7555300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6133700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5732000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4960200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4145800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3879000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43343</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42978</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42613</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42247</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41882</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41517</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41152</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40786</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6877200</v>
+      </c>
+      <c r="E81" s="3">
         <v>5906800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5107800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4779100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4059900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3445100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4111900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3053600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2941500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3281900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2553500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2277700</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2088200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1891200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1773100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>892800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>926800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>801800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>729100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>645900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>620700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>593000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>593500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>513300</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9541100</v>
+      </c>
+      <c r="E89" s="3">
         <v>8975100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8215200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6627000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6026700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4973000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4667400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4092100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3486100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3303100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4256900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3441700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-718000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-580100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-599100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-599000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-619200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-515900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-496600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-395000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-321900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-369600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-372000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-403700</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4260600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4309800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1894500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1755600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1249600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2233900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-610400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1170400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1056400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1156200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-535400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-703400</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2454700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2233600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2035200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1861700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1671100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1498700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1372200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1276800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1254900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1121700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-950900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-643600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5311000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4926300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4049100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3767200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3709000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3560200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3489200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3202300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3165400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3065600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2558900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2121500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-247800</v>
+      </c>
+      <c r="E101" s="3">
         <v>13800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>16900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-38700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-133600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>42300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-23000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-280000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>25200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-89900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-223200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>245900</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-278300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-247200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2288500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1065500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>934500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-778700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>544800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-560500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-710600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1008600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>939400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>862800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ACN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ACN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,203 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43343</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42978</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42613</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42247</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41882</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41517</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41152</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40786</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>64111700</v>
+      </c>
+      <c r="E8" s="3">
         <v>61594300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50533400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>44327000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>43215000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40992500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>36176800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34797700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32914400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31874700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30394300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29778000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27352900</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43380100</v>
+      </c>
+      <c r="E9" s="3">
         <v>41892800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34169300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30350900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>29900300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>57659700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>50840300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>24520200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23105200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22190200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21010100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20790300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18966200</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>20731600</v>
+      </c>
+      <c r="E10" s="3">
         <v>19701500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16364100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13976200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13314700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-16667200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-14663500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10277400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9809200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9684500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9384200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8987700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8386700</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +878,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,9 +920,12 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,51 +965,57 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1063100</v>
+      </c>
+      <c r="E14" s="3">
         <v>96300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>510000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-848800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>64400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-18000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-272000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,9 +1055,12 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1049,92 +1074,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55301900</v>
+      </c>
+      <c r="E17" s="3">
         <v>52323400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42911900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37813400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36909900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35093800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31495500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29138400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28478600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27574200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26055600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25906400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23882500</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8809900</v>
+      </c>
+      <c r="E18" s="3">
         <v>9270900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7621500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6513600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6305100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5898800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4681400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5659300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4435900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4300500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4338700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3871500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3470500</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1151,218 +1183,234 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>199100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>293800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-30300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-71100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-49800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-39400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>47700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>56600</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11467900</v>
+      </c>
+      <c r="E21" s="3">
         <v>11331700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9711900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8580500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7167500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6754400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5433400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6348900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5071000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4936100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4946400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4512800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4040300</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E22" s="3">
         <v>47300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>59500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15000</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9139300</v>
+      </c>
+      <c r="E23" s="3">
         <v>9196200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7761100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6774300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6251800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5808100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4616000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5603600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4410500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4297700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4339300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3904200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3512000</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2135800</v>
+      </c>
+      <c r="E24" s="3">
         <v>2207200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1770600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1589000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1405600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1415800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>981100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1254000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1136700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1121700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>784800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1079200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>958800</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1402,93 +1450,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7003500</v>
+      </c>
+      <c r="E26" s="3">
         <v>6989000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5990500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5185300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4846200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4392200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3634900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4349600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3273800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3176000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3554500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2824900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2553200</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6871600</v>
+      </c>
+      <c r="E27" s="3">
         <v>6877200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5906800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5107800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4779100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4237600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3445100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4111900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3053600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2941500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3281900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2553500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2277700</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1528,9 +1585,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1546,11 +1606,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-177700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1567,12 +1627,15 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1612,9 +1675,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1654,93 +1720,102 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-377000</v>
+      </c>
+      <c r="E32" s="3">
         <v>27400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-199100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-293800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>30300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>71100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>49800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>39400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-47700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-56600</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6871600</v>
+      </c>
+      <c r="E33" s="3">
         <v>6877200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5906800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5107800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4779100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4059900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3445100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4111900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3053600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2941500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3281900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2553500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2277700</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1780,98 +1855,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6871600</v>
+      </c>
+      <c r="E35" s="3">
         <v>6877200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5906800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5107800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4779100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4059900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3445100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4111900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3053600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2941500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3281900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2553500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2277700</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43343</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42978</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42613</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42247</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41882</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41517</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41152</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40786</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1888,8 +1972,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1906,134 +1991,144 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9045000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7889800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8168200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8415300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6126700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5015700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4081300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4860100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8675600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4921300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5631900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6640500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5701100</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E42" s="3">
         <v>4000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>94300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4900</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12227200</v>
+      </c>
+      <c r="E43" s="3">
         <v>11776800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9728200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7846900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8095100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7496400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6885300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6222400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5725400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5663300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4846600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4480700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4621800</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2073,219 +2168,237 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2105100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1940300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1765800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1393200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1225500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1070300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1127700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>890800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1536700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1317200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1931500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1464400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1143400</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23381900</v>
+      </c>
+      <c r="E46" s="3">
         <v>21610900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19666500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17749800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15450600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13585600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12097300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11976200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10700100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11904400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11844200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12587900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11471200</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>304400</v>
+      </c>
+      <c r="E47" s="3">
         <v>364800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>367900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>367800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>311300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>238600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>252500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>266800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>60500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>94800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>62100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>89600</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4167500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4677700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4821600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4728900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1391200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1264000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1140600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>956500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>801900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>793400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>779700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>779500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>785200</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17646000</v>
+      </c>
+      <c r="E49" s="3">
         <v>15064100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12836800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8739000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7046300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6070100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5712700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4119600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3394700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2793800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2144500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1215400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1132000</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2325,9 +2438,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2367,51 +2483,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5745500</v>
+      </c>
+      <c r="E52" s="3">
         <v>5545900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5483000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5493100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5590500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3290800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3486700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3289900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3745400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2344000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2825800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2042300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2253500</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2451,51 +2573,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51245300</v>
+      </c>
+      <c r="E54" s="3">
         <v>47263400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43175800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37078600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29789900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24449100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22689900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20609000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18202600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17930500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16867000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16665400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15731500</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2512,8 +2640,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2530,260 +2659,279 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2491200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2559500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2274100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1349900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1646600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1348800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1525100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1280800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1151500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1064200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>961900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>903800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>949300</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E58" s="3">
         <v>9200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>4400</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15413100</v>
+      </c>
+      <c r="E59" s="3">
         <v>14954800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13422700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11304900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9408800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8797600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8296300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7595300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7378900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7093500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8108000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7205300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6952900</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18009000</v>
+      </c>
+      <c r="E60" s="3">
         <v>17523500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15708900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12662600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11061900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10151800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9824300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8878900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8491000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8158100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8161000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8109200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7906600</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E61" s="3">
         <v>45900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>53500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>54100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6734600</v>
+      </c>
+      <c r="E62" s="3">
         <v>6946900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7316400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6862800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3884000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3553100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3133200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3516200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3038500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3460600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3716000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3931800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3474000</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2823,9 +2971,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2865,9 +3016,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2907,51 +3061,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25552500</v>
+      </c>
+      <c r="E66" s="3">
         <v>25157300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23646400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20078100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15380900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14084300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13740400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13053700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12068900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12198400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11906900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12519600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11852600</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2968,8 +3128,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3009,9 +3170,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3051,9 +3215,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3093,9 +3260,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3135,51 +3305,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19316200</v>
+      </c>
+      <c r="E72" s="3">
         <v>18203800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13988700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12375500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10421500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7952400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7081900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7880000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13470000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11758100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10069800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7904200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6281500</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3219,9 +3395,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3261,9 +3440,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3303,51 +3485,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25692800</v>
+      </c>
+      <c r="E76" s="3">
         <v>22106100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19529500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17000500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14409000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10364800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8949500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7555300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6133700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5732000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4960200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4145800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3879000</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3387,98 +3575,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43343</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42978</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42613</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42247</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41882</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41517</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41152</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40786</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6871600</v>
+      </c>
+      <c r="E81" s="3">
         <v>6877200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5906800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5107800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4779100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4059900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3445100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4111900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3053600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2941500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3281900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2553500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2277700</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3495,50 +3692,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2281100</v>
+      </c>
+      <c r="E83" s="3">
         <v>2088200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1891200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1773100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>892800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>926800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>801800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>729100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>645900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>620700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>593000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>593500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>513300</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3578,9 +3779,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3620,9 +3824,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3662,9 +3869,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3704,9 +3914,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3746,51 +3959,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9524300</v>
+      </c>
+      <c r="E89" s="3">
         <v>9541100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8975100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8215200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6627000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6026700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4973000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4667400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4092100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3486100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3303100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4256900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3441700</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3807,50 +4026,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-528200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-718000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-580100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-599100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-599000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-619200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-515900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-496600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-395000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-321900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-369600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-372000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-403700</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3890,9 +4113,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3932,51 +4158,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2622500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4260600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4309800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1894500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1755600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1249600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2233900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-610400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1170400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1056400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1156200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-535400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-703400</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3993,50 +4225,54 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2824400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2454700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2233600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2035200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1861700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1671100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1498700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1372200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1276800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1254900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1121700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-950900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-643600</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4076,9 +4312,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4118,9 +4357,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4160,133 +4402,145 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5645300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5311000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4926300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4049100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3767200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3709000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3560200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3489200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3202300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3165400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3065600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2558900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2121500</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-101300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-247800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>13800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>16900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-38700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-133600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>42300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-23000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-280000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>25200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-89900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-223200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>245900</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1155200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-278300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-247200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2288500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1065500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>934500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-778700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>544800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-560500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-710600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1008600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>939400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>862800</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
